--- a/public/archivos/Horarios2.xlsx
+++ b/public/archivos/Horarios2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\public\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1148,24 +1148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="26" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="7.09765625" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="15" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>68</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>68</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>68</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>68</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>68</v>
       </c>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>68</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>68</v>
       </c>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>68</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>94</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>94</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>94</v>
       </c>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>94</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>94</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>94</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>94</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>94</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>94</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>94</v>
       </c>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>94</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>94</v>
       </c>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>94</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>94</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>94</v>
       </c>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>94</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>94</v>
       </c>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>94</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>94</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>94</v>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>94</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>94</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>94</v>
       </c>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>94</v>
       </c>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>94</v>
       </c>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>94</v>
       </c>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>94</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>94</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>94</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>94</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>94</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>94</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>94</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>94</v>
       </c>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>94</v>
       </c>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>94</v>
       </c>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>94</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>94</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>94</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>94</v>
       </c>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>94</v>
       </c>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>94</v>
       </c>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>94</v>
       </c>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>94</v>
       </c>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>94</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>94</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>94</v>
       </c>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>94</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>94</v>
       </c>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>94</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>94</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>94</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>94</v>
       </c>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>94</v>
       </c>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>94</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>94</v>
       </c>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>94</v>
       </c>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>94</v>
       </c>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>94</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>94</v>
       </c>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>94</v>
       </c>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>94</v>
       </c>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>94</v>
       </c>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>94</v>
       </c>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>94</v>
       </c>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>94</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>94</v>
       </c>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>117</v>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>117</v>
       </c>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>117</v>
       </c>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>117</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>117</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>117</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>117</v>
       </c>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>117</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>117</v>
       </c>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>117</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>117</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>117</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>117</v>
       </c>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>117</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>117</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>117</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>117</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>117</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>121</v>
       </c>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>121</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>121</v>
       </c>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>121</v>
       </c>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>121</v>
       </c>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>121</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>121</v>
       </c>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>121</v>
       </c>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>121</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>121</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>121</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>121</v>
       </c>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>121</v>
       </c>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>121</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>121</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>121</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>121</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>121</v>
       </c>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>121</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>121</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>121</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>121</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>121</v>
       </c>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>121</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>121</v>
       </c>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>121</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>121</v>
       </c>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>121</v>
       </c>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>121</v>
       </c>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>121</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>121</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>121</v>
       </c>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>121</v>
       </c>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>121</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>121</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>121</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>121</v>
       </c>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>121</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>121</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>121</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>121</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>121</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>121</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>121</v>
       </c>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>121</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>121</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>121</v>
       </c>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>121</v>
       </c>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>121</v>
       </c>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>121</v>
       </c>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>121</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>121</v>
       </c>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>121</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
         <v>121</v>
       </c>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
         <v>121</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>121</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>121</v>
       </c>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>121</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>121</v>
       </c>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10" t="s">
         <v>121</v>
       </c>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
         <v>121</v>
       </c>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>121</v>
       </c>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>121</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>121</v>
       </c>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>121</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>121</v>
       </c>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>130</v>
       </c>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>134</v>
       </c>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>134</v>
       </c>
@@ -11857,7 +11857,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
         <v>134</v>
       </c>
@@ -11890,7 +11890,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>141</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>141</v>
       </c>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>141</v>
       </c>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>148</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="N243" s="6"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
         <v>151</v>
       </c>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>155</v>
       </c>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>155</v>
       </c>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>155</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="7"/>
     </row>
-    <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>155</v>
       </c>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>163</v>
       </c>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
         <v>163</v>
       </c>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>163</v>
       </c>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>163</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
         <v>163</v>
       </c>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
         <v>163</v>
       </c>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
         <v>163</v>
       </c>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>163</v>
       </c>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>163</v>
       </c>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>163</v>
       </c>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
         <v>163</v>
       </c>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>163</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="s">
         <v>163</v>
       </c>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
         <v>177</v>
       </c>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
         <v>177</v>
       </c>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>177</v>
       </c>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
         <v>177</v>
       </c>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>177</v>
       </c>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
         <v>177</v>
       </c>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
         <v>177</v>
       </c>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10" t="s">
         <v>177</v>
       </c>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
         <v>177</v>
       </c>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10" t="s">
         <v>177</v>
       </c>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
         <v>177</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
         <v>177</v>
       </c>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>177</v>
       </c>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>177</v>
       </c>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
         <v>177</v>
       </c>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
         <v>177</v>
       </c>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
         <v>177</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>177</v>
       </c>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10" t="s">
         <v>183</v>
       </c>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>183</v>
       </c>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
         <v>183</v>
       </c>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>183</v>
       </c>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
         <v>183</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
         <v>183</v>
       </c>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
         <v>183</v>
       </c>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>183</v>
       </c>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
         <v>183</v>
       </c>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
         <v>183</v>
       </c>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>183</v>
       </c>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
         <v>183</v>
       </c>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
         <v>193</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10" t="s">
         <v>193</v>
       </c>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>193</v>
       </c>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
         <v>195</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
         <v>195</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
         <v>195</v>
       </c>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
         <v>199</v>
       </c>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
         <v>199</v>
       </c>
@@ -14225,7 +14225,7 @@
       </c>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10" t="s">
         <v>199</v>
       </c>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
         <v>199</v>
       </c>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10" t="s">
         <v>204</v>
       </c>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
         <v>204</v>
       </c>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
         <v>204</v>
       </c>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
         <v>206</v>
       </c>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
         <v>206</v>
       </c>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
         <v>208</v>
       </c>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
         <v>210</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10" t="s">
         <v>151</v>
       </c>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
         <v>212</v>
       </c>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>213</v>
       </c>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
         <v>213</v>
       </c>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
         <v>216</v>
       </c>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>218</v>
       </c>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
         <v>220</v>
       </c>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
         <v>222</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
         <v>222</v>
       </c>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
         <v>223</v>
       </c>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
         <v>223</v>
       </c>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
         <v>224</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="10" t="s">
         <v>224</v>
       </c>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
         <v>225</v>
       </c>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
         <v>225</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
         <v>225</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="s">
         <v>225</v>
       </c>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
         <v>225</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
         <v>227</v>
       </c>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
         <v>227</v>
       </c>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10" t="s">
         <v>228</v>
       </c>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10" t="s">
         <v>228</v>
       </c>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10" t="s">
         <v>230</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
         <v>230</v>
       </c>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10" t="s">
         <v>230</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="10" t="s">
         <v>230</v>
       </c>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10" t="s">
         <v>230</v>
       </c>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
         <v>230</v>
       </c>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
         <v>230</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
         <v>230</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>230</v>
       </c>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
         <v>230</v>
       </c>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
         <v>238</v>
       </c>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
         <v>238</v>
       </c>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
         <v>241</v>
       </c>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="s">
         <v>238</v>
       </c>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
         <v>238</v>
       </c>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
         <v>238</v>
       </c>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
         <v>244</v>
       </c>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10" t="s">
         <v>244</v>
       </c>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
         <v>246</v>
       </c>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10" t="s">
         <v>246</v>
       </c>
@@ -16196,777 +16196,777 @@
       </c>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="E351" s="17"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="E352" s="17"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="E353" s="17"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E354" s="17"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E355" s="17"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E356" s="17"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E357" s="17"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E358" s="17"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E359" s="17"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E360" s="17"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E361" s="17"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E362" s="17"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E363" s="17"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E364" s="17"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E365" s="17"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E366" s="17"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E367" s="17"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E368" s="17"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E369" s="17"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E370" s="17"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E371" s="17"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E372" s="17"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E373" s="17"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E374" s="17"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E375" s="17"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E376" s="17"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E377" s="17"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E378" s="17"/>
     </row>
-    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E379" s="17"/>
     </row>
-    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E380" s="17"/>
     </row>
-    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="E381" s="17"/>
     </row>
-    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="E382" s="17"/>
     </row>
-    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="E383" s="17"/>
     </row>
-    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9"/>
       <c r="E384" s="17"/>
     </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9"/>
       <c r="E385" s="17"/>
     </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E386" s="17"/>
     </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E387" s="17"/>
     </row>
-    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E389" s="17"/>
     </row>
-    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E390" s="17"/>
     </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E391" s="17"/>
     </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E392" s="17"/>
     </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E393" s="17"/>
     </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16981,69 +16981,69 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>46</v>
       </c>

--- a/public/archivos/Horarios2.xlsx
+++ b/public/archivos/Horarios2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\public\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1148,24 +1148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="12" width="9.3984375" customWidth="1"/>
-    <col min="13" max="13" width="7.09765625" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
-    <col min="15" max="26" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>68</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>68</v>
       </c>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>68</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>68</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>68</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>68</v>
       </c>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>68</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>68</v>
       </c>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>68</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>94</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>94</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>94</v>
       </c>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>94</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>94</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>94</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>94</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>94</v>
       </c>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>94</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>94</v>
       </c>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>94</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>94</v>
       </c>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>94</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>94</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>94</v>
       </c>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>94</v>
       </c>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>94</v>
       </c>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>94</v>
       </c>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>94</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>94</v>
       </c>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>94</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>94</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>94</v>
       </c>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>94</v>
       </c>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>94</v>
       </c>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>94</v>
       </c>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>94</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>94</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>94</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>94</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>94</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>94</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>94</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>94</v>
       </c>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>94</v>
       </c>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>94</v>
       </c>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>94</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>94</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>94</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>94</v>
       </c>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>94</v>
       </c>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>94</v>
       </c>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>94</v>
       </c>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>94</v>
       </c>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>94</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>94</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>94</v>
       </c>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>94</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>94</v>
       </c>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>94</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>94</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>94</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>94</v>
       </c>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>94</v>
       </c>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>94</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>94</v>
       </c>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>94</v>
       </c>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>94</v>
       </c>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>94</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>94</v>
       </c>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>94</v>
       </c>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>94</v>
       </c>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>94</v>
       </c>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>94</v>
       </c>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>94</v>
       </c>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>94</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>94</v>
       </c>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>117</v>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>117</v>
       </c>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>117</v>
       </c>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>117</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>117</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>117</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>117</v>
       </c>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>117</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>117</v>
       </c>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>117</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>117</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>117</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>117</v>
       </c>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>117</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>117</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>117</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>117</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>117</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>121</v>
       </c>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>121</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>121</v>
       </c>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>121</v>
       </c>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>121</v>
       </c>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>121</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>121</v>
       </c>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>121</v>
       </c>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>121</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>121</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>121</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>121</v>
       </c>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>121</v>
       </c>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>121</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>121</v>
       </c>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>121</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>121</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>121</v>
       </c>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>121</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>121</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>121</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>121</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>121</v>
       </c>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>121</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>121</v>
       </c>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>121</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>121</v>
       </c>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>121</v>
       </c>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>121</v>
       </c>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>121</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>121</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>121</v>
       </c>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>121</v>
       </c>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>121</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>121</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>121</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>121</v>
       </c>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>121</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>121</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>121</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>121</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>121</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>121</v>
       </c>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>121</v>
       </c>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>121</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>121</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>121</v>
       </c>
@@ -10885,7 +10885,7 @@
       </c>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>121</v>
       </c>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>121</v>
       </c>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>121</v>
       </c>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>121</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>121</v>
       </c>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>121</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>121</v>
       </c>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>121</v>
       </c>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>121</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>121</v>
       </c>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>121</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>121</v>
       </c>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>121</v>
       </c>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>121</v>
       </c>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>121</v>
       </c>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>121</v>
       </c>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>121</v>
       </c>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>121</v>
       </c>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>121</v>
       </c>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>130</v>
       </c>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>134</v>
       </c>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>134</v>
       </c>
@@ -11857,7 +11857,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>134</v>
       </c>
@@ -11890,7 +11890,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>141</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>141</v>
       </c>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>141</v>
       </c>
@@ -11999,7 +11999,7 @@
       </c>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>148</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="N243" s="6"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>151</v>
       </c>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>155</v>
       </c>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>155</v>
       </c>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>155</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="7"/>
     </row>
-    <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>155</v>
       </c>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>163</v>
       </c>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>163</v>
       </c>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>163</v>
       </c>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>163</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>163</v>
       </c>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>163</v>
       </c>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>163</v>
       </c>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>163</v>
       </c>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>163</v>
       </c>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>163</v>
       </c>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>163</v>
       </c>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>163</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>163</v>
       </c>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>177</v>
       </c>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>177</v>
       </c>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>177</v>
       </c>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>177</v>
       </c>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>177</v>
       </c>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>177</v>
       </c>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>177</v>
       </c>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>177</v>
       </c>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>177</v>
       </c>
@@ -13098,7 +13098,7 @@
       </c>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>177</v>
       </c>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>177</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>177</v>
       </c>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>177</v>
       </c>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>177</v>
       </c>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>177</v>
       </c>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>177</v>
       </c>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>177</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>177</v>
       </c>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>183</v>
       </c>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>183</v>
       </c>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>183</v>
       </c>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>183</v>
       </c>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>183</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>183</v>
       </c>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>183</v>
       </c>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>183</v>
       </c>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>183</v>
       </c>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>183</v>
       </c>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>183</v>
       </c>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>183</v>
       </c>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>193</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>193</v>
       </c>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>193</v>
       </c>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>195</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>195</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>195</v>
       </c>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>199</v>
       </c>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>199</v>
       </c>
@@ -14225,7 +14225,7 @@
       </c>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>199</v>
       </c>
@@ -14266,7 +14266,7 @@
       </c>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>199</v>
       </c>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>204</v>
       </c>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>204</v>
       </c>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>204</v>
       </c>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>206</v>
       </c>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>206</v>
       </c>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>208</v>
       </c>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>210</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>151</v>
       </c>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>212</v>
       </c>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>213</v>
       </c>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>213</v>
       </c>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>216</v>
       </c>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>218</v>
       </c>
@@ -14826,7 +14826,7 @@
       </c>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>220</v>
       </c>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>222</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>222</v>
       </c>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>223</v>
       </c>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>223</v>
       </c>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>224</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>224</v>
       </c>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>225</v>
       </c>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>225</v>
       </c>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>225</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>225</v>
       </c>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>225</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>227</v>
       </c>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>227</v>
       </c>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>228</v>
       </c>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>228</v>
       </c>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>230</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>230</v>
       </c>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>230</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>230</v>
       </c>
@@ -15570,7 +15570,7 @@
       </c>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>230</v>
       </c>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>230</v>
       </c>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>230</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>230</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>230</v>
       </c>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>230</v>
       </c>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>238</v>
       </c>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>238</v>
       </c>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>241</v>
       </c>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>238</v>
       </c>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>238</v>
       </c>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>238</v>
       </c>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>244</v>
       </c>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>244</v>
       </c>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>246</v>
       </c>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>246</v>
       </c>
@@ -16196,777 +16196,777 @@
       </c>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="E351" s="17"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="E352" s="17"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="E353" s="17"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E354" s="17"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E355" s="17"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E356" s="17"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E357" s="17"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E358" s="17"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E359" s="17"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E360" s="17"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E361" s="17"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E362" s="17"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E363" s="17"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E364" s="17"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E365" s="17"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E366" s="17"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E367" s="17"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E368" s="17"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E369" s="17"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E370" s="17"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E371" s="17"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E372" s="17"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E373" s="17"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E374" s="17"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E375" s="17"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E376" s="17"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E377" s="17"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E378" s="17"/>
     </row>
-    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E379" s="17"/>
     </row>
-    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E380" s="17"/>
     </row>
-    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="E381" s="17"/>
     </row>
-    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="E382" s="17"/>
     </row>
-    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="E383" s="17"/>
     </row>
-    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="E384" s="17"/>
     </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="E385" s="17"/>
     </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E386" s="17"/>
     </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E387" s="17"/>
     </row>
-    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E389" s="17"/>
     </row>
-    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E390" s="17"/>
     </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E391" s="17"/>
     </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E392" s="17"/>
     </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E393" s="17"/>
     </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16981,69 +16981,69 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
